--- a/doc/D4_ドキュメント/04_DB定義書_D4.xlsx
+++ b/doc/D4_ドキュメント/04_DB定義書_D4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\6月研修\PlusDojo6月作成ドキュメントテンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\D4_ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8AEBE0-AD5E-407D-BADC-11C0BD9822E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32BDA5B-8354-402D-811E-C714AA9BB417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28635" yWindow="-165" windowWidth="29130" windowHeight="16530" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="77">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -485,6 +485,14 @@
   </si>
   <si>
     <t>SG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -582,7 +590,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -599,9 +607,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -951,7 +956,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1060,7 +1065,7 @@
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" t="s">
         <v>45</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1072,7 +1077,7 @@
       <c r="B11" s="3">
         <v>4</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" t="s">
         <v>47</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1356,7 +1361,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1470,7 +1475,7 @@
       <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1482,7 +1487,9 @@
       <c r="F10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>33</v>
       </c>
@@ -1511,9 +1518,7 @@
       <c r="E11" s="3">
         <v>20</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
         <v>33</v>
@@ -1541,9 +1546,7 @@
       <c r="E12" s="3">
         <v>20</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
         <v>33</v>
@@ -1877,7 +1880,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2003,7 +2006,9 @@
       <c r="F10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>33</v>
       </c>
@@ -2055,7 +2060,7 @@
         <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -2069,7 +2074,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>LOGINDAY varchar (30)</v>
+        <v>LOGINDAY datetime (30)</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2394,7 +2399,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2542,7 +2547,7 @@
         <v>57</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -2558,7 +2563,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>MONTH varchar (10),</v>
+        <v>MONTH date (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2575,7 +2580,7 @@
         <v>30</v>
       </c>
       <c r="E12" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2586,7 +2591,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>LG varchar (50)</v>
+        <v>LG varchar (100)</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2911,7 +2916,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3059,7 +3064,7 @@
         <v>57</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -3075,7 +3080,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>MONTH varchar (10),</v>
+        <v>MONTH date (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3097,7 +3102,9 @@
       <c r="F12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="H12" s="3" t="s">
         <v>33</v>
       </c>
@@ -3180,7 +3187,7 @@
         <v>30</v>
       </c>
       <c r="E15" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -3191,7 +3198,7 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>SG varchar (50)</v>
+        <v>SG varchar (100)</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -3461,8 +3468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDE79C4-C752-4E96-821F-341FB643F48D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3610,7 +3617,7 @@
         <v>57</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -3626,7 +3633,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>MONTH varchar (10),</v>
+        <v>MONTH date (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3678,7 +3685,9 @@
       <c r="F13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="H13" s="3" t="s">
         <v>33</v>
       </c>
@@ -3733,7 +3742,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -3746,7 +3755,7 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>ACHIEV int (2)</v>
+        <v>ACHIEV int (3)</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -4016,8 +4025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357964DA-458F-4964-84B8-3A0F94A4E58A}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4165,7 +4174,7 @@
         <v>69</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -4181,7 +4190,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>HOUR varchar (10),</v>
+        <v>HOUR datetime (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -4198,7 +4207,7 @@
         <v>30</v>
       </c>
       <c r="E12" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -4209,7 +4218,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>TASK varchar (50)</v>
+        <v>TASK varchar (100)</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -4533,8 +4542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDCC2A2-DC63-4C1F-BC49-DF50006FBC9A}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4682,7 +4691,7 @@
         <v>59</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -4698,7 +4707,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>DAY varchar (10),</v>
+        <v>DAY date (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">

--- a/doc/D4_ドキュメント/04_DB定義書_D4.xlsx
+++ b/doc/D4_ドキュメント/04_DB定義書_D4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\D4_ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32BDA5B-8354-402D-811E-C714AA9BB417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2994EFB3-E15E-4304-ACB4-DA3CCCF77371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28635" yWindow="-165" windowWidth="29130" windowHeight="16530" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="DAYS" sheetId="6" r:id="rId3"/>
     <sheet name="LGOAL" sheetId="2" r:id="rId4"/>
     <sheet name="SGOAL" sheetId="7" r:id="rId5"/>
-    <sheet name="TODO" sheetId="8" r:id="rId6"/>
-    <sheet name="TASK" sheetId="10" r:id="rId7"/>
-    <sheet name="MATB" sheetId="11" r:id="rId8"/>
+    <sheet name="TODOTB" sheetId="8" r:id="rId6"/>
+    <sheet name="TASKTB" sheetId="10" r:id="rId7"/>
+    <sheet name="MEMOTB" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="77">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -303,17 +303,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>雑務</t>
-    <rPh sb="0" eb="2">
-      <t>ザツム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>LGOAL</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -424,14 +413,6 @@
     <rPh sb="0" eb="3">
       <t>タッセイド</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ACHIEV</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DO</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -459,10 +440,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MATB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>年月日</t>
     <rPh sb="0" eb="1">
       <t>ネン</t>
@@ -493,6 +470,26 @@
   </si>
   <si>
     <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ACHIEVE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MEMO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MEMOTB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TODOリスト</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -955,8 +952,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1066,7 +1063,7 @@
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>27</v>
@@ -1078,10 +1075,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>27</v>
@@ -1093,10 +1090,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>27</v>
@@ -1111,7 +1108,7 @@
         <v>41</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>27</v>
@@ -1123,10 +1120,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>27</v>
@@ -1476,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>32</v>
@@ -1510,7 +1507,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>30</v>
@@ -1538,7 +1535,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>30</v>
@@ -1880,7 +1877,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1995,7 +1992,7 @@
         <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>32</v>
@@ -2029,7 +2026,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>30</v>
@@ -2057,10 +2054,10 @@
         <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -2399,7 +2396,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2463,7 +2460,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2514,7 +2511,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>32</v>
@@ -2541,16 +2538,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E11" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>33</v>
@@ -2563,7 +2560,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>MONTH date (10),</v>
+        <v>MONTH date (20),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2574,7 +2571,7 @@
         <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>30</v>
@@ -2916,7 +2913,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2968,7 +2965,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2980,7 +2977,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3031,7 +3028,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>32</v>
@@ -3058,16 +3055,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E11" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>33</v>
@@ -3080,7 +3077,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>MONTH date (10),</v>
+        <v>MONTH date (20),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3088,10 +3085,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>32</v>
@@ -3122,16 +3119,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="E13" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -3142,7 +3139,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>TODAY int (2),</v>
+        <v>TODAY date (20),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3150,16 +3147,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="E14" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -3170,7 +3167,7 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>FROMDAY int (2),</v>
+        <v>FROMDAY date (20),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -3178,10 +3175,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>30</v>
@@ -3468,8 +3465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDE79C4-C752-4E96-821F-341FB643F48D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3521,7 +3518,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3533,7 +3530,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3573,7 +3570,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table DO (</v>
+        <v>create table TODOTB (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3584,7 +3581,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>32</v>
@@ -3611,16 +3608,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E11" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>33</v>
@@ -3633,7 +3630,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>MONTH date (10),</v>
+        <v>MONTH date (20),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3641,10 +3638,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>32</v>
@@ -3671,10 +3668,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>32</v>
@@ -3705,10 +3702,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>30</v>
@@ -3733,10 +3730,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>32</v>
@@ -3755,7 +3752,7 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>ACHIEV int (3)</v>
+        <v>ACHIEVE int (3)</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -4025,8 +4022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357964DA-458F-4964-84B8-3A0F94A4E58A}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4090,7 +4087,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4141,7 +4138,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>32</v>
@@ -4168,16 +4165,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E11" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>33</v>
@@ -4190,7 +4187,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>HOUR datetime (10),</v>
+        <v>HOUR datetime (30),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -4543,7 +4540,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4595,7 +4592,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4607,7 +4604,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4647,7 +4644,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table MATB (</v>
+        <v>create table MEMOTB (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -4658,7 +4655,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>32</v>
@@ -4685,16 +4682,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E11" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>33</v>
@@ -4707,7 +4704,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>DAY date (10),</v>
+        <v>DAY date (20),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -4715,27 +4712,25 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="3">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>MA varchar (50)</v>
+        <v>MEMO varchar (300)</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">

--- a/doc/D4_ドキュメント/04_DB定義書_D4.xlsx
+++ b/doc/D4_ドキュメント/04_DB定義書_D4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\D4_ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2994EFB3-E15E-4304-ACB4-DA3CCCF77371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E448AE0F-E95A-41A4-A4F4-46036C05D575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="79">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -416,27 +416,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>年月日時</t>
-    <rPh sb="0" eb="1">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TASKTB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HOUR</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -490,6 +470,31 @@
   </si>
   <si>
     <t>TODOリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク終了時刻</t>
+    <rPh sb="3" eb="7">
+      <t>シュウリョウジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク開始時刻</t>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOHOUR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FROMHOUR</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -952,8 +957,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1090,10 +1095,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>27</v>
@@ -1108,7 +1113,7 @@
         <v>41</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>27</v>
@@ -1120,10 +1125,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>27</v>
@@ -2057,7 +2062,7 @@
         <v>54</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -2544,7 +2549,7 @@
         <v>55</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -2571,7 +2576,7 @@
         <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>30</v>
@@ -2913,7 +2918,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3061,7 +3066,7 @@
         <v>55</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -3125,7 +3130,7 @@
         <v>58</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
@@ -3153,7 +3158,7 @@
         <v>59</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E14" s="3">
         <v>20</v>
@@ -3178,7 +3183,7 @@
         <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>30</v>
@@ -3518,7 +3523,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3530,7 +3535,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3614,7 +3619,7 @@
         <v>55</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -3733,7 +3738,7 @@
         <v>62</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>32</v>
@@ -4022,8 +4027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357964DA-458F-4964-84B8-3A0F94A4E58A}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4087,7 +4092,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4165,13 +4170,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E11" s="3">
         <v>30</v>
@@ -4187,7 +4192,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>HOUR datetime (30),</v>
+        <v>TOHOUR datetime (30),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -4195,16 +4200,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="3">
         <v>30</v>
-      </c>
-      <c r="E12" s="3">
-        <v>100</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -4215,25 +4220,35 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>TASK varchar (100)</v>
+        <v>FROMHOUR datetime (30),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3">
+        <v>100</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>TASK varchar (100)</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -4592,7 +4607,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4604,7 +4619,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4682,13 +4697,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -4712,10 +4727,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>30</v>

--- a/doc/D4_ドキュメント/04_DB定義書_D4.xlsx
+++ b/doc/D4_ドキュメント/04_DB定義書_D4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\D4_ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E448AE0F-E95A-41A4-A4F4-46036C05D575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B261C7EC-6AFC-4396-A519-21E68137CC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="86">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -307,16 +307,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>年月</t>
-    <rPh sb="0" eb="1">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ツキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>短期目標</t>
     <rPh sb="0" eb="2">
       <t>タンキ</t>
@@ -381,23 +371,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MONTH</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SGID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>DAY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TODAY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FROMDAY</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -490,11 +468,73 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TOHOUR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FROMHOUR</t>
+    <t>長期目標ID</t>
+    <rPh sb="0" eb="4">
+      <t>チョウキモクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年月</t>
+    <rPh sb="0" eb="2">
+      <t>ネンゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LGID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MANTH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長期目標</t>
+    <rPh sb="0" eb="4">
+      <t>チョウキモクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>短期目標ID</t>
+    <rPh sb="0" eb="4">
+      <t>タンキモクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>短期目標</t>
+    <rPh sb="0" eb="4">
+      <t>タンキモクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DAY_S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DAY_E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動採番</t>
+    <rPh sb="0" eb="4">
+      <t>ジドウサイバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HOUR_S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HOUR_E</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -958,7 +998,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -998,7 +1038,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="5">
-        <v>45084</v>
+        <v>45086</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1080,10 +1120,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>27</v>
@@ -1095,10 +1135,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>27</v>
@@ -1113,7 +1153,7 @@
         <v>41</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>27</v>
@@ -1125,10 +1165,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>27</v>
@@ -1363,7 +1403,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1407,7 +1447,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="5">
-        <v>45084</v>
+        <v>45086</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1478,7 +1518,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>32</v>
@@ -1512,7 +1552,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>30</v>
@@ -1540,7 +1580,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>30</v>
@@ -1881,8 +1921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1757A09B-BEA5-4E88-BA8B-7097A7260D33}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1926,7 +1966,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="5">
-        <v>45084</v>
+        <v>45086</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1997,7 +2037,7 @@
         <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>32</v>
@@ -2031,7 +2071,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>30</v>
@@ -2059,10 +2099,10 @@
         <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -2400,8 +2440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2445,7 +2485,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="5">
-        <v>45084</v>
+        <v>45086</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -2513,10 +2553,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>32</v>
@@ -2527,15 +2567,19 @@
       <c r="F10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>NUMBER int (10),</v>
+        <v>LGID int (10),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2543,20 +2587,18 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="E11" s="3">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
         <v>33</v>
@@ -2565,7 +2607,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>MONTH date (20),</v>
+        <v>NUMBER int (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2573,16 +2615,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2593,25 +2635,35 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>LG varchar (100)</v>
+        <v>MANTH data (20),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3">
+        <v>100</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>LG varchar (100)</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2918,7 +2970,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2962,7 +3014,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="5">
-        <v>45084</v>
+        <v>45086</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -2970,7 +3022,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2982,7 +3034,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3030,10 +3082,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>32</v>
@@ -3044,15 +3096,19 @@
       <c r="F10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>NUMBER int (10),</v>
+        <v>SGID int (10),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3060,20 +3116,18 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="E11" s="3">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
         <v>33</v>
@@ -3082,7 +3136,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>MONTH date (20),</v>
+        <v>LGID int (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3093,30 +3147,23 @@
         <v>47</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E12" s="3">
-        <v>2</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>SGID int (2),</v>
+        <v>DAY_S date (20),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3127,10 +3174,10 @@
         <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
@@ -3144,7 +3191,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>TODAY date (20),</v>
+        <v>DAY_E date (20),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3152,16 +3199,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="E14" s="3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -3172,35 +3219,25 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>FROMDAY date (20),</v>
+        <v>SG varchar (100)</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="3">
-        <v>100</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>SG varchar (100)</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -3471,7 +3508,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3515,7 +3552,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="5">
-        <v>45084</v>
+        <v>45086</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -3523,7 +3560,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3535,7 +3572,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3583,10 +3620,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>32</v>
@@ -3597,15 +3634,19 @@
       <c r="F10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>NUMBER int (10),</v>
+        <v>TODOID int (10),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3613,20 +3654,18 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="E11" s="3">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
         <v>33</v>
@@ -3635,7 +3674,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>MONTH date (20),</v>
+        <v>SGID int (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3643,20 +3682,18 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E12" s="3">
-        <v>2</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
         <v>33</v>
@@ -3665,7 +3702,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>SGID int (2),</v>
+        <v>TODO varchar (100),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3673,91 +3710,64 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="3">
-        <v>2</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>34</v>
+      <c r="I13" s="3">
+        <v>0</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>TODOID int (2),</v>
+        <v>ACHIEVE int (3)</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="3">
-        <v>50</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>TODO varchar (50),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>ACHIEVE int (3)</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -4027,8 +4037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357964DA-458F-4964-84B8-3A0F94A4E58A}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4072,7 +4082,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="5">
-        <v>45084</v>
+        <v>45086</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -4092,7 +4102,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4143,7 +4153,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>32</v>
@@ -4170,13 +4180,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E11" s="3">
         <v>30</v>
@@ -4192,7 +4202,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>TOHOUR datetime (30),</v>
+        <v>HOUR_S datetime (30),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -4200,13 +4210,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -4220,7 +4230,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>FROMHOUR datetime (30),</v>
+        <v>HOUR_E datetime (30),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -4555,7 +4565,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4599,7 +4609,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="5">
-        <v>45084</v>
+        <v>45086</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -4607,7 +4617,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4619,7 +4629,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4670,7 +4680,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>32</v>
@@ -4697,13 +4707,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -4727,10 +4737,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>30</v>

--- a/doc/D4_ドキュメント/04_DB定義書_D4.xlsx
+++ b/doc/D4_ドキュメント/04_DB定義書_D4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\D4_ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B261C7EC-6AFC-4396-A519-21E68137CC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703EAC12-08A0-43CA-9D63-A9FC1B44AE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -213,13 +213,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザ名</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワード</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -352,10 +345,6 @@
   </si>
   <si>
     <t>NUMBER</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NAME</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -535,6 +524,17 @@
   </si>
   <si>
     <t>HOUR_E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NAME</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1090,10 +1090,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>27</v>
@@ -1105,10 +1105,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>27</v>
@@ -1120,10 +1120,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>27</v>
@@ -1135,10 +1135,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>27</v>
@@ -1150,10 +1150,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>27</v>
@@ -1165,10 +1165,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>27</v>
@@ -1402,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4951BAF-FD7D-4AF5-ADB5-1DBC87C5152E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1515,29 +1515,29 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="E10" s="3">
         <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -1549,13 +1549,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -1563,7 +1563,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1577,13 +1577,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -1591,7 +1591,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1921,7 +1921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1757A09B-BEA5-4E88-BA8B-7097A7260D33}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4:G5"/>
     </sheetView>
   </sheetViews>
@@ -1974,7 +1974,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1986,7 +1986,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2034,29 +2034,29 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3">
         <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -2068,13 +2068,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -2082,7 +2082,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2096,13 +2096,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -2110,7 +2110,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2493,7 +2493,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2505,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2553,29 +2553,29 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3">
         <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -2587,13 +2587,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -2601,7 +2601,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2615,13 +2615,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -2629,7 +2629,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2643,13 +2643,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="3">
         <v>100</v>
@@ -2657,7 +2657,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -3022,7 +3022,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3034,7 +3034,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3082,29 +3082,29 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3">
         <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -3116,13 +3116,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -3130,7 +3130,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3144,13 +3144,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -3158,7 +3158,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="3"/>
       <c r="L12" t="str">
@@ -3171,13 +3171,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
@@ -3185,7 +3185,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -3199,13 +3199,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
@@ -3213,7 +3213,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -3560,7 +3560,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3572,7 +3572,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3620,29 +3620,29 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3">
         <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -3654,13 +3654,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -3668,7 +3668,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3682,13 +3682,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -3696,7 +3696,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -3710,13 +3710,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="3">
         <v>3</v>
@@ -3724,7 +3724,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
@@ -4090,7 +4090,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4102,7 +4102,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4150,23 +4150,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3">
         <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4180,23 +4180,23 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E11" s="3">
         <v>30</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -4210,13 +4210,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -4224,7 +4224,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -4238,13 +4238,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="3">
         <v>100</v>
@@ -4252,7 +4252,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -4617,7 +4617,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4629,7 +4629,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4677,23 +4677,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3">
         <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4707,23 +4707,23 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -4737,13 +4737,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="3">
         <v>300</v>

--- a/doc/D4_ドキュメント/04_DB定義書_D4.xlsx
+++ b/doc/D4_ドキュメント/04_DB定義書_D4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\D4_ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703EAC12-08A0-43CA-9D63-A9FC1B44AE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9475EB23-6982-4799-8DDF-4981048D873A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1402,7 +1402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4951BAF-FD7D-4AF5-ADB5-1DBC87C5152E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1921,8 +1921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1757A09B-BEA5-4E88-BA8B-7097A7260D33}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2074,7 +2074,7 @@
         <v>48</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -2088,7 +2088,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>NUMBER varchar (10),</v>
+        <v>NUMBER int (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2102,10 +2102,10 @@
         <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E12" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2116,7 +2116,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>LOGINDAY datetime (30)</v>
+        <v>LOGINDAY date (20)</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">

--- a/doc/D4_ドキュメント/04_DB定義書_D4.xlsx
+++ b/doc/D4_ドキュメント/04_DB定義書_D4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\D4_ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9475EB23-6982-4799-8DDF-4981048D873A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9F948E-03C9-459B-97B4-F7F332BD3CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1921,7 +1921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1757A09B-BEA5-4E88-BA8B-7097A7260D33}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -2440,8 +2440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3508,7 +3508,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/doc/D4_ドキュメント/04_DB定義書_D4.xlsx
+++ b/doc/D4_ドキュメント/04_DB定義書_D4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\D4_ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9F948E-03C9-459B-97B4-F7F332BD3CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEC0FA4-1281-4B1B-AB41-71EDFF9C6E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -475,10 +475,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MANTH</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>長期目標</t>
     <rPh sb="0" eb="4">
       <t>チョウキモクヒョウ</t>
@@ -535,6 +531,10 @@
   </si>
   <si>
     <t>NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MONTH</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1403,7 +1403,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1549,10 +1549,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>29</v>
@@ -1921,8 +1921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1757A09B-BEA5-4E88-BA8B-7097A7260D33}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2441,7 +2441,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -2618,10 +2618,10 @@
         <v>72</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -2635,7 +2635,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>MANTH data (20),</v>
+        <v>MONTH data (20),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2643,7 +2643,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>60</v>
@@ -2970,7 +2970,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3082,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>52</v>
@@ -3147,7 +3147,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>63</v>
@@ -3174,7 +3174,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>63</v>
@@ -3199,7 +3199,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>61</v>
@@ -3508,7 +3508,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4038,7 +4038,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4183,7 +4183,7 @@
         <v>70</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>62</v>
@@ -4213,7 +4213,7 @@
         <v>69</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>62</v>
@@ -4564,7 +4564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDCC2A2-DC63-4C1F-BC49-DF50006FBC9A}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/doc/D4_ドキュメント/04_DB定義書_D4.xlsx
+++ b/doc/D4_ドキュメント/04_DB定義書_D4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\D4_ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEC0FA4-1281-4B1B-AB41-71EDFF9C6E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91514FE-68CA-4769-A86F-8FA4C8E9B78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="86">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -2440,7 +2440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2970,7 +2970,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3212,9 +3212,7 @@
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
@@ -3508,7 +3506,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3695,9 +3693,7 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
@@ -4037,8 +4033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357964DA-458F-4964-84B8-3A0F94A4E58A}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4251,9 +4247,7 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
